--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_19-16.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_19-16.xlsx
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
   </si>
   <si>
     <t>Friday, 2 January, 2026 7:16 PM</t>
@@ -2692,37 +2695,63 @@
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
-      <c r="K73" s="11">
-        <v>5563.1700000000001</v>
-      </c>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-    </row>
-    <row r="74" ht="17.25" customHeight="1">
-      <c t="s" r="A74" s="12">
+      <c r="A73" s="6">
+        <v>70</v>
+      </c>
+      <c t="s" r="B73" s="7">
         <v>102</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c t="s" r="F74" s="13">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c t="s" r="H73" s="8">
+        <v>89</v>
+      </c>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="9">
+        <v>8</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c r="N73" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="K74" s="11">
+        <v>5571.1700000000001</v>
+      </c>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="12">
         <v>103</v>
       </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="14"/>
-      <c t="s" r="I74" s="15">
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c t="s" r="F75" s="13">
         <v>104</v>
       </c>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="14"/>
+      <c t="s" r="I75" s="15">
+        <v>105</v>
+      </c>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="218">
+  <mergeCells count="221">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2937,10 +2966,13 @@
     <mergeCell ref="B72:G72"/>
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="I74:N74"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="I75:N75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
